--- a/projects/office_calibration_nsga_modeled.xlsx
+++ b/projects/office_calibration_nsga_modeled.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13176" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2527" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2547" uniqueCount="828">
   <si>
     <t>type</t>
   </si>
@@ -2505,6 +2505,21 @@
   </si>
   <si>
     <t>Gas Consumption Period 10 Modeled</t>
+  </si>
+  <si>
+    <t>AdjustThermostatSetpointsByDegrees</t>
+  </si>
+  <si>
+    <t>Degrees Fahrenheit to Adjust Cooling Setpoint By</t>
+  </si>
+  <si>
+    <t>deg F</t>
+  </si>
+  <si>
+    <t>Degrees Fahrenheit to Adjust heating Setpoint By</t>
+  </si>
+  <si>
+    <t>Alter Design Day Thermostats</t>
   </si>
 </sst>
 </file>
@@ -6624,17 +6639,17 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.77734375" customWidth="1"/>
+    <col min="1" max="1" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
@@ -6653,17 +6668,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="1"/>
+    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="28"/>
       <c r="C1" s="19"/>
@@ -6672,7 +6687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>435</v>
       </c>
@@ -6681,7 +6696,7 @@
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>436</v>
       </c>
@@ -6692,7 +6707,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -6714,7 +6729,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="46.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="46.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
@@ -6725,7 +6740,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
@@ -6744,7 +6759,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
@@ -6763,7 +6778,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>458</v>
       </c>
@@ -6776,7 +6791,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="12" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>28</v>
       </c>
@@ -6785,7 +6800,7 @@
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -6796,7 +6811,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>25</v>
       </c>
@@ -6807,7 +6822,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -6818,7 +6833,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>462</v>
       </c>
@@ -6829,7 +6844,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -6840,7 +6855,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>464</v>
       </c>
@@ -6851,7 +6866,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>466</v>
       </c>
@@ -6875,7 +6890,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>451</v>
       </c>
@@ -6883,7 +6898,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
@@ -6904,7 +6919,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>4</v>
       </c>
@@ -6916,7 +6931,7 @@
       </c>
       <c r="D24" s="35"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>564</v>
       </c>
@@ -6928,7 +6943,7 @@
       </c>
       <c r="D25" s="35"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>565</v>
       </c>
@@ -6940,7 +6955,7 @@
       </c>
       <c r="D26" s="35"/>
     </row>
-    <row r="27" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>566</v>
       </c>
@@ -6952,7 +6967,7 @@
       </c>
       <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>567</v>
       </c>
@@ -6964,7 +6979,7 @@
       </c>
       <c r="D28" s="35"/>
     </row>
-    <row r="29" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>568</v>
       </c>
@@ -6976,7 +6991,7 @@
       </c>
       <c r="D29" s="35"/>
     </row>
-    <row r="30" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>539</v>
       </c>
@@ -6986,7 +7001,7 @@
       <c r="C30" s="30"/>
       <c r="D30" s="35"/>
     </row>
-    <row r="31" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>541</v>
       </c>
@@ -6998,7 +7013,7 @@
       </c>
       <c r="D31" s="35"/>
     </row>
-    <row r="32" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>797</v>
       </c>
@@ -7010,22 +7025,22 @@
       </c>
       <c r="D32" s="35"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="31"/>
       <c r="C33" s="34"/>
       <c r="D33" s="35"/>
     </row>
-    <row r="34" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="26"/>
       <c r="C34" s="34"/>
       <c r="D34" s="35"/>
     </row>
-    <row r="35" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="43.15" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
@@ -7038,7 +7053,7 @@
       <c r="D36" s="11"/>
       <c r="E36" s="13"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>29</v>
       </c>
@@ -7046,7 +7061,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.9" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7063,7 +7078,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -7090,7 +7105,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>703</v>
       </c>
@@ -7101,7 +7116,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" s="31" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="26"/>
       <c r="D44" s="2"/>
     </row>
@@ -7126,34 +7141,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y223"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K94" sqref="K94"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.77734375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.77734375" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" style="31"/>
-    <col min="16" max="16" width="11.44140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.7109375" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="31"/>
+    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.109375" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.44140625" style="31"/>
-    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.44140625" style="31"/>
+    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.42578125" style="31"/>
+    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="18" x14ac:dyDescent="0.35">
@@ -7207,7 +7222,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="62.45" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7281,7 +7296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="b">
         <v>1</v>
       </c>
@@ -7300,7 +7315,7 @@
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
     </row>
-    <row r="5" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
@@ -7317,7 +7332,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="6" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
         <v>21</v>
       </c>
@@ -7334,7 +7349,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="7" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="b">
         <v>1</v>
       </c>
@@ -7353,7 +7368,7 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B8" s="31" t="s">
         <v>21</v>
       </c>
@@ -7378,7 +7393,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B9" s="31" t="s">
         <v>21</v>
       </c>
@@ -7401,7 +7416,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B10" s="31" t="s">
         <v>21</v>
       </c>
@@ -7419,7 +7434,7 @@
       </c>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="31" t="s">
         <v>21</v>
       </c>
@@ -7437,7 +7452,7 @@
       </c>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -7455,7 +7470,7 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="38" t="b">
         <v>1</v>
       </c>
@@ -7474,7 +7489,7 @@
       <c r="G13" s="39"/>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7494,7 +7509,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
@@ -7511,7 +7526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
         <v>21</v>
       </c>
@@ -7528,7 +7543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
@@ -7548,7 +7563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="30" t="s">
         <v>21</v>
       </c>
@@ -7566,7 +7581,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="30" t="s">
         <v>21</v>
       </c>
@@ -7584,7 +7599,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="30" t="s">
         <v>21</v>
       </c>
@@ -7602,7 +7617,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
         <v>21</v>
       </c>
@@ -7620,7 +7635,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="30" t="s">
         <v>21</v>
       </c>
@@ -7638,7 +7653,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
         <v>21</v>
       </c>
@@ -7656,7 +7671,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B24" s="30" t="s">
         <v>21</v>
       </c>
@@ -7674,7 +7689,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
         <v>21</v>
       </c>
@@ -7692,7 +7707,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B26" s="30" t="s">
         <v>21</v>
       </c>
@@ -7710,7 +7725,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
         <v>21</v>
       </c>
@@ -7728,7 +7743,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
         <v>21</v>
       </c>
@@ -7746,7 +7761,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
         <v>21</v>
       </c>
@@ -7764,7 +7779,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="30" t="s">
         <v>21</v>
       </c>
@@ -7782,7 +7797,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="b">
         <v>1</v>
       </c>
@@ -7801,7 +7816,7 @@
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="31" t="s">
         <v>21</v>
       </c>
@@ -7817,7 +7832,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="b">
         <v>1</v>
       </c>
@@ -7834,7 +7849,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="30" t="s">
         <v>21</v>
       </c>
@@ -7851,7 +7866,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="30" t="s">
         <v>21</v>
       </c>
@@ -7871,7 +7886,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
         <v>21</v>
       </c>
@@ -7888,7 +7903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A37" s="38" t="b">
         <v>1</v>
       </c>
@@ -7907,7 +7922,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="31" t="s">
         <v>21</v>
       </c>
@@ -7932,7 +7947,7 @@
       <c r="P38" s="40"/>
       <c r="Q38" s="2"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="31" t="s">
         <v>21</v>
       </c>
@@ -7960,7 +7975,7 @@
       <c r="P39" s="40"/>
       <c r="Q39" s="2"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="31" t="s">
         <v>21</v>
       </c>
@@ -7988,7 +8003,7 @@
       <c r="P40" s="40"/>
       <c r="Q40" s="2"/>
     </row>
-    <row r="41" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="38" t="b">
         <v>1</v>
       </c>
@@ -8007,7 +8022,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42" s="31" t="s">
         <v>21</v>
       </c>
@@ -8032,7 +8047,7 @@
       <c r="P42" s="40"/>
       <c r="Q42" s="2"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B43" s="31" t="s">
         <v>21</v>
       </c>
@@ -8060,7 +8075,7 @@
       <c r="P43" s="40"/>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>21</v>
       </c>
@@ -8088,7 +8103,7 @@
       <c r="P44" s="40"/>
       <c r="Q44" s="2"/>
     </row>
-    <row r="45" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A45" s="38" t="b">
         <v>1</v>
       </c>
@@ -8107,7 +8122,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B46" s="31" t="s">
         <v>21</v>
       </c>
@@ -8132,7 +8147,7 @@
       <c r="P46" s="40"/>
       <c r="Q46" s="2"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
@@ -8160,7 +8175,7 @@
       <c r="P47" s="40"/>
       <c r="Q47" s="2"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B48" s="31" t="s">
         <v>21</v>
       </c>
@@ -8188,7 +8203,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A49" s="38" t="b">
         <v>1</v>
       </c>
@@ -8207,7 +8222,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B50" s="31" t="s">
         <v>21</v>
       </c>
@@ -8232,7 +8247,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="2"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B51" s="31" t="s">
         <v>21</v>
       </c>
@@ -8260,7 +8275,7 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="2"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B52" s="31" t="s">
         <v>21</v>
       </c>
@@ -8288,7 +8303,7 @@
       <c r="P52" s="40"/>
       <c r="Q52" s="2"/>
     </row>
-    <row r="53" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A53" s="38" t="b">
         <v>1</v>
       </c>
@@ -8307,7 +8322,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" s="31" t="s">
         <v>21</v>
       </c>
@@ -8325,7 +8340,7 @@
       </c>
       <c r="I54" s="31"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" s="31" t="s">
         <v>21</v>
       </c>
@@ -8343,7 +8358,7 @@
       </c>
       <c r="I55" s="31"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" s="31" t="s">
         <v>21</v>
       </c>
@@ -8361,7 +8376,7 @@
       </c>
       <c r="I56" s="31"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B57" s="31" t="s">
         <v>21</v>
       </c>
@@ -8379,7 +8394,7 @@
       </c>
       <c r="I57" s="31"/>
     </row>
-    <row r="58" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" s="38" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A58" s="38" t="b">
         <v>1</v>
       </c>
@@ -8398,7 +8413,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A59" s="30" t="b">
         <v>1</v>
       </c>
@@ -8415,7 +8430,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B60" s="43" t="s">
         <v>22</v>
       </c>
@@ -8451,7 +8466,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B61" s="30" t="s">
         <v>21</v>
       </c>
@@ -8468,7 +8483,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B62" s="30" t="s">
         <v>21</v>
       </c>
@@ -8488,7 +8503,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A63" s="30" t="b">
         <v>1</v>
       </c>
@@ -8505,7 +8520,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B64" s="43" t="s">
         <v>22</v>
       </c>
@@ -8541,7 +8556,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B65" s="30" t="s">
         <v>21</v>
       </c>
@@ -8558,7 +8573,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B66" s="30" t="s">
         <v>21</v>
       </c>
@@ -8578,7 +8593,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A67" s="30" t="b">
         <v>1</v>
       </c>
@@ -8595,7 +8610,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B68" s="43" t="s">
         <v>22</v>
       </c>
@@ -8631,7 +8646,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B69" s="30" t="s">
         <v>21</v>
       </c>
@@ -8648,7 +8663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B70" s="30" t="s">
         <v>21</v>
       </c>
@@ -8668,7 +8683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A71" s="30" t="b">
         <v>1</v>
       </c>
@@ -8686,7 +8701,7 @@
       </c>
       <c r="P71" s="31"/>
     </row>
-    <row r="72" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B72" s="30" t="s">
         <v>21</v>
       </c>
@@ -8707,7 +8722,7 @@
       </c>
       <c r="O72" s="31"/>
     </row>
-    <row r="73" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B73" s="43" t="s">
         <v>22</v>
       </c>
@@ -8743,7 +8758,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="74" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B74" s="30" t="s">
         <v>21</v>
       </c>
@@ -8761,7 +8776,7 @@
       </c>
       <c r="O74" s="31"/>
     </row>
-    <row r="75" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B75" s="30" t="s">
         <v>21</v>
       </c>
@@ -8779,7 +8794,7 @@
       </c>
       <c r="O75" s="31"/>
     </row>
-    <row r="76" spans="1:17" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B76" s="30" t="s">
         <v>21</v>
       </c>
@@ -8797,7 +8812,7 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A77" s="30" t="b">
         <v>1</v>
       </c>
@@ -8825,7 +8840,7 @@
       <c r="O77" s="3"/>
       <c r="Q77" s="40"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A78" s="30"/>
       <c r="B78" s="30" t="s">
         <v>21</v>
@@ -8854,7 +8869,7 @@
       <c r="N78" s="3"/>
       <c r="P78" s="40"/>
     </row>
-    <row r="79" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" s="43" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B79" s="43" t="s">
         <v>22</v>
       </c>
@@ -8892,7 +8907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A80" s="30"/>
       <c r="B80" s="30" t="s">
         <v>21</v>
@@ -8918,7 +8933,7 @@
       <c r="N80" s="3"/>
       <c r="P80" s="40"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A81" s="30"/>
       <c r="B81" s="30" t="s">
         <v>21</v>
@@ -8944,7 +8959,7 @@
       <c r="N81" s="3"/>
       <c r="P81" s="40"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
       <c r="B82" s="30" t="s">
         <v>21</v>
@@ -8970,7 +8985,7 @@
       <c r="N82" s="3"/>
       <c r="P82" s="40"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
       <c r="B83" s="30" t="s">
         <v>21</v>
@@ -8996,7 +9011,7 @@
       <c r="N83" s="3"/>
       <c r="P83" s="40"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
       <c r="B84" s="30" t="s">
         <v>21</v>
@@ -9022,7 +9037,7 @@
       <c r="N84" s="3"/>
       <c r="P84" s="40"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
       <c r="B85" s="30" t="s">
         <v>21</v>
@@ -9048,7 +9063,7 @@
       <c r="N85" s="3"/>
       <c r="P85" s="40"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
       <c r="B86" s="30" t="s">
         <v>21</v>
@@ -9074,551 +9089,656 @@
       <c r="N86" s="3"/>
       <c r="P86" s="40"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>823</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>823</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+    </row>
+    <row r="88" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="43" t="s">
+        <v>824</v>
+      </c>
+      <c r="E88" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G88" s="43" t="s">
+        <v>825</v>
+      </c>
+      <c r="H88" s="43">
+        <v>1</v>
+      </c>
+      <c r="I88" s="46"/>
+      <c r="J88" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K88" s="45">
+        <v>5</v>
+      </c>
+      <c r="L88" s="45">
+        <v>0</v>
+      </c>
+      <c r="M88" s="45">
+        <f>(K88-J88)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N88" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q88" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="43" t="s">
+        <v>826</v>
+      </c>
+      <c r="E89" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="F89" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G89" s="43" t="s">
+        <v>825</v>
+      </c>
+      <c r="H89" s="43">
+        <v>-1</v>
+      </c>
+      <c r="I89" s="46"/>
+      <c r="J89" s="45">
+        <v>-5</v>
+      </c>
+      <c r="K89" s="45">
+        <v>5</v>
+      </c>
+      <c r="L89" s="45">
+        <v>0</v>
+      </c>
+      <c r="M89" s="45">
+        <f>(K89-J89)/6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N89" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="Q89" s="43" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B90" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>827</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="F90" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="H90" s="31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H91" s="31"/>
       <c r="I91" s="31"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H92" s="31"/>
       <c r="I92" s="31"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H93" s="31"/>
       <c r="I93" s="31"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H94" s="31"/>
       <c r="I94" s="31"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H95" s="31"/>
       <c r="I95" s="31"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="H96" s="31"/>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H97" s="31"/>
       <c r="I97" s="31"/>
     </row>
-    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H98" s="31"/>
       <c r="I98" s="31"/>
     </row>
-    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H99" s="31"/>
       <c r="I99" s="31"/>
     </row>
-    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H100" s="31"/>
       <c r="I100" s="31"/>
     </row>
-    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H101" s="31"/>
       <c r="I101" s="31"/>
     </row>
-    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H102" s="31"/>
       <c r="I102" s="31"/>
     </row>
-    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H103" s="31"/>
       <c r="I103" s="31"/>
     </row>
-    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H104" s="31"/>
       <c r="I104" s="31"/>
     </row>
-    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H105" s="31"/>
       <c r="I105" s="31"/>
     </row>
-    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H106" s="31"/>
       <c r="I106" s="31"/>
     </row>
-    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H107" s="31"/>
       <c r="I107" s="31"/>
     </row>
-    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H108" s="31"/>
       <c r="I108" s="31"/>
     </row>
-    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H109" s="31"/>
       <c r="I109" s="31"/>
     </row>
-    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H110" s="31"/>
       <c r="I110" s="31"/>
     </row>
-    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H111" s="31"/>
       <c r="I111" s="31"/>
     </row>
-    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H112" s="31"/>
       <c r="I112" s="31"/>
     </row>
-    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H113" s="31"/>
       <c r="I113" s="31"/>
     </row>
-    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H114" s="31"/>
       <c r="I114" s="31"/>
     </row>
-    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
-    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H116" s="31"/>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H118" s="31"/>
       <c r="I118" s="31"/>
     </row>
-    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H119" s="31"/>
       <c r="I119" s="31"/>
     </row>
-    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H120" s="31"/>
       <c r="I120" s="31"/>
     </row>
-    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H121" s="31"/>
       <c r="I121" s="31"/>
     </row>
-    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H122" s="31"/>
       <c r="I122" s="31"/>
     </row>
-    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H124" s="31"/>
       <c r="I124" s="31"/>
     </row>
-    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H125" s="31"/>
       <c r="I125" s="31"/>
     </row>
-    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H126" s="31"/>
       <c r="I126" s="31"/>
     </row>
-    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H127" s="31"/>
       <c r="I127" s="31"/>
     </row>
-    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H128" s="31"/>
       <c r="I128" s="31"/>
     </row>
-    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H129" s="31"/>
       <c r="I129" s="31"/>
     </row>
-    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H130" s="31"/>
       <c r="I130" s="31"/>
     </row>
-    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H131" s="31"/>
       <c r="I131" s="31"/>
     </row>
-    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H132" s="31"/>
       <c r="I132" s="31"/>
     </row>
-    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H133" s="31"/>
       <c r="I133" s="31"/>
     </row>
-    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H134" s="31"/>
       <c r="I134" s="31"/>
     </row>
-    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H135" s="31"/>
       <c r="I135" s="31"/>
     </row>
-    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H136" s="31"/>
       <c r="I136" s="31"/>
     </row>
-    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H137" s="31"/>
       <c r="I137" s="31"/>
     </row>
-    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H138" s="31"/>
       <c r="I138" s="31"/>
     </row>
-    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H139" s="31"/>
       <c r="I139" s="31"/>
     </row>
-    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H140" s="31"/>
       <c r="I140" s="31"/>
     </row>
-    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H141" s="31"/>
       <c r="I141" s="31"/>
     </row>
-    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H142" s="31"/>
       <c r="I142" s="31"/>
     </row>
-    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H143" s="31"/>
       <c r="I143" s="31"/>
     </row>
-    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H144" s="31"/>
       <c r="I144" s="31"/>
     </row>
-    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H145" s="31"/>
       <c r="I145" s="31"/>
     </row>
-    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H146" s="31"/>
       <c r="I146" s="31"/>
     </row>
-    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H147" s="31"/>
       <c r="I147" s="31"/>
     </row>
-    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H148" s="31"/>
       <c r="I148" s="31"/>
     </row>
-    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H149" s="31"/>
       <c r="I149" s="31"/>
     </row>
-    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H150" s="31"/>
       <c r="I150" s="31"/>
     </row>
-    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H151" s="31"/>
       <c r="I151" s="31"/>
     </row>
-    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H152" s="31"/>
       <c r="I152" s="31"/>
     </row>
-    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H153" s="31"/>
       <c r="I153" s="31"/>
     </row>
-    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H154" s="31"/>
       <c r="I154" s="31"/>
     </row>
-    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H155" s="31"/>
       <c r="I155" s="31"/>
     </row>
-    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H156" s="31"/>
       <c r="I156" s="31"/>
     </row>
-    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H157" s="31"/>
       <c r="I157" s="31"/>
     </row>
-    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H158" s="31"/>
       <c r="I158" s="31"/>
     </row>
-    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H159" s="31"/>
       <c r="I159" s="31"/>
     </row>
-    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H160" s="31"/>
       <c r="I160" s="31"/>
     </row>
-    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H161" s="31"/>
       <c r="I161" s="31"/>
     </row>
-    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H162" s="31"/>
       <c r="I162" s="31"/>
     </row>
-    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H163" s="31"/>
       <c r="I163" s="31"/>
     </row>
-    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H164" s="31"/>
       <c r="I164" s="31"/>
     </row>
-    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H165" s="31"/>
       <c r="I165" s="31"/>
     </row>
-    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H166" s="31"/>
       <c r="I166" s="31"/>
     </row>
-    <row r="167" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H167" s="31"/>
       <c r="I167" s="31"/>
     </row>
-    <row r="168" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H168" s="31"/>
       <c r="I168" s="31"/>
     </row>
-    <row r="169" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H169" s="31"/>
       <c r="I169" s="31"/>
     </row>
-    <row r="170" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H170" s="31"/>
       <c r="I170" s="31"/>
     </row>
-    <row r="171" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H171" s="31"/>
       <c r="I171" s="31"/>
     </row>
-    <row r="172" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H172" s="31"/>
       <c r="I172" s="31"/>
     </row>
-    <row r="173" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H173" s="31"/>
       <c r="I173" s="31"/>
     </row>
-    <row r="174" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H174" s="31"/>
       <c r="I174" s="31"/>
     </row>
-    <row r="175" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H175" s="31"/>
       <c r="I175" s="31"/>
     </row>
-    <row r="176" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H176" s="31"/>
       <c r="I176" s="31"/>
     </row>
-    <row r="177" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H177" s="31"/>
       <c r="I177" s="31"/>
     </row>
-    <row r="178" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H178" s="31"/>
       <c r="I178" s="31"/>
     </row>
-    <row r="179" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H179" s="31"/>
       <c r="I179" s="31"/>
     </row>
-    <row r="180" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H180" s="31"/>
       <c r="I180" s="31"/>
     </row>
-    <row r="181" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H181" s="31"/>
       <c r="I181" s="31"/>
     </row>
-    <row r="182" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H182" s="31"/>
       <c r="I182" s="31"/>
     </row>
-    <row r="183" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H183" s="31"/>
       <c r="I183" s="31"/>
     </row>
-    <row r="184" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H184" s="31"/>
       <c r="I184" s="31"/>
     </row>
-    <row r="185" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H185" s="31"/>
       <c r="I185" s="31"/>
     </row>
-    <row r="186" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H186" s="31"/>
       <c r="I186" s="31"/>
     </row>
-    <row r="187" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H187" s="31"/>
       <c r="I187" s="31"/>
     </row>
-    <row r="188" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H188" s="31"/>
       <c r="I188" s="31"/>
     </row>
-    <row r="189" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H189" s="31"/>
       <c r="I189" s="31"/>
     </row>
-    <row r="190" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H190" s="31"/>
       <c r="I190" s="31"/>
     </row>
-    <row r="191" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
     </row>
-    <row r="192" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H192" s="31"/>
       <c r="I192" s="31"/>
     </row>
-    <row r="193" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H193" s="31"/>
       <c r="I193" s="31"/>
     </row>
-    <row r="194" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H194" s="31"/>
       <c r="I194" s="31"/>
     </row>
-    <row r="195" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H195" s="31"/>
       <c r="I195" s="31"/>
     </row>
-    <row r="196" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H196" s="31"/>
       <c r="I196" s="31"/>
     </row>
-    <row r="197" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H197" s="31"/>
       <c r="I197" s="31"/>
     </row>
-    <row r="198" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H198" s="31"/>
       <c r="I198" s="31"/>
     </row>
-    <row r="199" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H199" s="31"/>
       <c r="I199" s="31"/>
     </row>
-    <row r="200" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H200" s="31"/>
       <c r="I200" s="31"/>
     </row>
-    <row r="201" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H201" s="31"/>
       <c r="I201" s="31"/>
     </row>
-    <row r="202" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H202" s="31"/>
       <c r="I202" s="31"/>
     </row>
-    <row r="203" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H203" s="31"/>
       <c r="I203" s="31"/>
     </row>
-    <row r="204" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H204" s="31"/>
       <c r="I204" s="31"/>
     </row>
-    <row r="205" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H205" s="31"/>
       <c r="I205" s="31"/>
     </row>
-    <row r="206" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H206" s="31"/>
       <c r="I206" s="31"/>
     </row>
-    <row r="207" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H207" s="31"/>
       <c r="I207" s="31"/>
     </row>
-    <row r="208" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H208" s="31"/>
       <c r="I208" s="31"/>
     </row>
-    <row r="209" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H209" s="31"/>
       <c r="I209" s="31"/>
     </row>
-    <row r="210" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H210" s="31"/>
       <c r="I210" s="31"/>
     </row>
-    <row r="211" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H211" s="31"/>
       <c r="I211" s="31"/>
     </row>
-    <row r="212" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H212" s="31"/>
       <c r="I212" s="31"/>
     </row>
-    <row r="213" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H213" s="31"/>
       <c r="I213" s="31"/>
     </row>
-    <row r="214" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H214" s="31"/>
       <c r="I214" s="31"/>
     </row>
-    <row r="215" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H215" s="31"/>
       <c r="I215" s="31"/>
     </row>
-    <row r="216" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H216" s="31"/>
       <c r="I216" s="31"/>
     </row>
-    <row r="217" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H217" s="31"/>
       <c r="I217" s="31"/>
     </row>
-    <row r="218" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H218" s="31"/>
       <c r="I218" s="31"/>
     </row>
-    <row r="219" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H219" s="31"/>
       <c r="I219" s="31"/>
     </row>
-    <row r="220" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H220" s="31"/>
       <c r="I220" s="31"/>
     </row>
-    <row r="221" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H221" s="31"/>
       <c r="I221" s="31"/>
     </row>
-    <row r="222" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H222" s="31"/>
       <c r="I222" s="31"/>
     </row>
-    <row r="223" spans="8:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H223" s="31"/>
       <c r="I223" s="31"/>
     </row>
@@ -9636,22 +9756,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="29.44140625" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.44140625" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="31"/>
+    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -9704,7 +9824,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="46.9" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>628</v>
       </c>
@@ -9740,7 +9860,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>644</v>
       </c>
@@ -9769,7 +9889,7 @@
       <c r="J4" s="30"/>
       <c r="K4" s="30"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>645</v>
       </c>
@@ -9799,7 +9919,7 @@
       <c r="K5" s="30"/>
       <c r="L5" s="30"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>646</v>
       </c>
@@ -9828,7 +9948,7 @@
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>647</v>
       </c>
@@ -9857,7 +9977,7 @@
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>709</v>
       </c>
@@ -9888,7 +10008,7 @@
       <c r="K8" s="30"/>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>711</v>
       </c>
@@ -9920,7 +10040,7 @@
       </c>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
         <v>712</v>
       </c>
@@ -9952,7 +10072,7 @@
       </c>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
         <v>713</v>
       </c>
@@ -9984,7 +10104,7 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
         <v>714</v>
       </c>
@@ -10016,7 +10136,7 @@
       </c>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>715</v>
       </c>
@@ -10048,7 +10168,7 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14" s="30" t="s">
         <v>716</v>
       </c>
@@ -10080,7 +10200,7 @@
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>717</v>
       </c>
@@ -10112,7 +10232,7 @@
       </c>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
         <v>718</v>
       </c>
@@ -10144,7 +10264,7 @@
       </c>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" s="30" t="s">
         <v>719</v>
       </c>
@@ -10176,7 +10296,7 @@
       </c>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>720</v>
       </c>
@@ -10208,7 +10328,7 @@
       </c>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>722</v>
       </c>
@@ -10239,7 +10359,7 @@
       <c r="K19" s="30"/>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
         <v>721</v>
       </c>
@@ -10271,7 +10391,7 @@
       </c>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
         <v>724</v>
       </c>
@@ -10303,7 +10423,7 @@
       </c>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
         <v>725</v>
       </c>
@@ -10335,7 +10455,7 @@
       </c>
       <c r="L22" s="30"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
         <v>726</v>
       </c>
@@ -10367,7 +10487,7 @@
       </c>
       <c r="L23" s="30"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>727</v>
       </c>
@@ -10399,7 +10519,7 @@
       </c>
       <c r="L24" s="30"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
         <v>728</v>
       </c>
@@ -10431,7 +10551,7 @@
       </c>
       <c r="L25" s="30"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
         <v>729</v>
       </c>
@@ -10463,7 +10583,7 @@
       </c>
       <c r="L26" s="30"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
         <v>730</v>
       </c>
@@ -10495,7 +10615,7 @@
       </c>
       <c r="L27" s="30"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
         <v>731</v>
       </c>
@@ -10527,7 +10647,7 @@
       </c>
       <c r="L28" s="30"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>822</v>
       </c>
@@ -10559,43 +10679,43 @@
       </c>
       <c r="L29" s="30"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -10615,16 +10735,16 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -11634,7 +11754,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -11657,7 +11777,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -11680,7 +11800,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -11703,7 +11823,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -11726,7 +11846,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -11749,7 +11869,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -11768,7 +11888,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -11789,7 +11909,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -11812,7 +11932,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -11835,7 +11955,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -11858,7 +11978,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -11881,7 +12001,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -11904,7 +12024,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -11927,7 +12047,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -11950,7 +12070,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -11973,7 +12093,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -11992,7 +12112,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12013,7 +12133,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12038,7 +12158,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12061,7 +12181,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -12084,7 +12204,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -12107,7 +12227,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -12130,7 +12250,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -12153,7 +12273,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -12176,7 +12296,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -12199,7 +12319,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -12222,7 +12342,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -12241,7 +12361,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -12262,7 +12382,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -12285,7 +12405,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -12310,7 +12430,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -12333,7 +12453,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -12356,7 +12476,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -12379,7 +12499,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -12402,7 +12522,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -12425,7 +12545,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -12448,7 +12568,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -12471,7 +12591,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -12494,7 +12614,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -12517,7 +12637,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -12540,7 +12660,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -12559,7 +12679,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -12582,7 +12702,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -12605,7 +12725,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -12628,7 +12748,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -12651,7 +12771,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -12674,7 +12794,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -12697,7 +12817,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -12720,7 +12840,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -12743,7 +12863,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -12766,7 +12886,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -12789,7 +12909,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -12808,7 +12928,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -12833,7 +12953,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -12852,7 +12972,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -12873,7 +12993,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -12898,7 +13018,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -12917,7 +13037,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -12940,7 +13060,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -12965,7 +13085,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -12988,7 +13108,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13009,7 +13129,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13028,7 +13148,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13053,7 +13173,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13076,7 +13196,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -13099,7 +13219,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -13122,7 +13242,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -13145,7 +13265,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -13168,7 +13288,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -13191,7 +13311,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -13210,7 +13330,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -13233,7 +13353,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -13256,7 +13376,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -13279,7 +13399,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -13298,7 +13418,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -13321,7 +13441,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -13344,7 +13464,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -13367,7 +13487,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -13390,7 +13510,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -13413,7 +13533,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -13436,7 +13556,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -13455,7 +13575,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -13480,7 +13600,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -13503,7 +13623,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -13526,7 +13646,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -13549,7 +13669,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -13572,7 +13692,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -13595,7 +13715,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -13618,7 +13738,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -13641,7 +13761,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -13664,7 +13784,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -13683,7 +13803,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -13708,7 +13828,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -13729,7 +13849,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -13752,7 +13872,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -13775,7 +13895,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -13798,7 +13918,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -13821,7 +13941,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -13844,7 +13964,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -13867,7 +13987,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -13890,7 +14010,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -13913,7 +14033,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -13936,7 +14056,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -13959,7 +14079,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -13982,7 +14102,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14005,7 +14125,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14024,7 +14144,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14047,7 +14167,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14066,7 +14186,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -14089,7 +14209,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -14112,7 +14232,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -14131,7 +14251,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -14156,7 +14276,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -14179,7 +14299,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -14202,7 +14322,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -14225,7 +14345,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -14248,7 +14368,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -14271,7 +14391,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -14294,7 +14414,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -14317,7 +14437,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -14340,7 +14460,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -14363,7 +14483,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -14382,7 +14502,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -14407,7 +14527,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -14430,7 +14550,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -14453,7 +14573,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -14476,7 +14596,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -14499,7 +14619,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -14522,7 +14642,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -14545,7 +14665,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -14568,7 +14688,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -14591,7 +14711,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -14614,7 +14734,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -14633,7 +14753,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -14656,7 +14776,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -14679,7 +14799,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -14702,7 +14822,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -14725,7 +14845,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -14744,7 +14864,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -14767,7 +14887,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -14790,7 +14910,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -14813,7 +14933,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -14836,7 +14956,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -14855,7 +14975,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -14876,7 +14996,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -14899,7 +15019,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -14918,7 +15038,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -14941,7 +15061,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -14966,7 +15086,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -14987,7 +15107,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15012,7 +15132,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15037,7 +15157,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15056,7 +15176,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15081,7 +15201,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -15104,7 +15224,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -15127,7 +15247,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -15150,7 +15270,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -15173,7 +15293,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -15196,7 +15316,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -15219,7 +15339,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -15242,7 +15362,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -15265,7 +15385,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -15284,7 +15404,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -15309,7 +15429,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -15332,7 +15452,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -15355,7 +15475,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -15378,7 +15498,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -15401,7 +15521,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -15424,7 +15544,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -15447,7 +15567,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -15470,7 +15590,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -15493,7 +15613,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -15512,7 +15632,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -15533,7 +15653,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -15556,7 +15676,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -15579,7 +15699,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -15602,7 +15722,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -15625,7 +15745,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -15648,7 +15768,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -15671,7 +15791,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -15694,7 +15814,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -15717,7 +15837,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -15740,7 +15860,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -15763,7 +15883,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -15786,7 +15906,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -15809,7 +15929,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -15832,7 +15952,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -15855,7 +15975,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -15878,7 +15998,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -15897,7 +16017,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -15918,7 +16038,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -15941,7 +16061,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -15964,7 +16084,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -15987,7 +16107,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16010,7 +16130,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16033,7 +16153,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16056,7 +16176,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16079,7 +16199,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -16102,7 +16222,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -16125,7 +16245,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -16148,7 +16268,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -16171,7 +16291,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -16194,7 +16314,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -16217,7 +16337,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -16240,7 +16360,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -16263,7 +16383,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -16282,7 +16402,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -16307,7 +16427,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -16330,7 +16450,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -16353,7 +16473,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -16376,7 +16496,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -16399,7 +16519,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -16418,7 +16538,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -16443,7 +16563,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -16466,7 +16586,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -16485,7 +16605,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -16504,7 +16624,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -16523,7 +16643,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -16544,7 +16664,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -16567,7 +16687,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -16590,7 +16710,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -16613,7 +16733,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -16636,7 +16756,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -16659,7 +16779,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -16682,7 +16802,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -16705,7 +16825,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -16728,7 +16848,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -16751,7 +16871,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -16774,7 +16894,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -16793,7 +16913,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -16816,7 +16936,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -16835,7 +16955,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -16860,7 +16980,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -16883,7 +17003,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -16906,7 +17026,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -16929,7 +17049,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -16952,7 +17072,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -16975,7 +17095,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -16998,7 +17118,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17021,7 +17141,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17044,7 +17164,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17067,7 +17187,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -17090,7 +17210,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -17109,7 +17229,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -17132,7 +17252,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -17151,7 +17271,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -17172,7 +17292,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -17191,7 +17311,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -17212,7 +17332,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -17231,7 +17351,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -17252,7 +17372,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -17271,7 +17391,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -17294,7 +17414,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -17313,7 +17433,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -17338,7 +17458,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -17361,7 +17481,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -17384,7 +17504,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -17407,7 +17527,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -17430,7 +17550,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -17453,7 +17573,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -17476,7 +17596,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -17499,7 +17619,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -17522,7 +17642,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -17541,7 +17661,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -17564,7 +17684,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -17587,7 +17707,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -17610,7 +17730,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -17633,7 +17753,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -17652,7 +17772,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -17675,7 +17795,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -17698,7 +17818,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -17723,7 +17843,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -17742,7 +17862,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -17767,7 +17887,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -17790,7 +17910,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -17809,7 +17929,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -17830,7 +17950,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -17851,7 +17971,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -17874,7 +17994,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -17893,7 +18013,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -17912,7 +18032,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -17937,7 +18057,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -17962,7 +18082,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" t="b">
         <v>0</v>
       </c>
@@ -17976,7 +18096,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B329" t="s">
         <v>21</v>
       </c>
@@ -17999,7 +18119,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B330" t="s">
         <v>21</v>
       </c>
@@ -18019,7 +18139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B331" t="s">
         <v>21</v>
       </c>
@@ -18039,7 +18159,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B332" t="s">
         <v>21</v>
       </c>
@@ -18059,7 +18179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B333" t="s">
         <v>21</v>
       </c>
@@ -18076,7 +18196,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B334" t="s">
         <v>21</v>
       </c>
@@ -18099,7 +18219,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B335" t="s">
         <v>21</v>
       </c>
@@ -18122,7 +18242,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="b">
         <v>0</v>
       </c>
@@ -18136,7 +18256,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B337" t="s">
         <v>21</v>
       </c>
@@ -18159,7 +18279,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B338" t="s">
         <v>21</v>
       </c>
@@ -18182,7 +18302,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B339" t="s">
         <v>21</v>
       </c>
@@ -18202,7 +18322,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B340" t="s">
         <v>21</v>
       </c>
@@ -18222,7 +18342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B341" t="s">
         <v>21</v>
       </c>
@@ -18239,7 +18359,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="b">
         <v>0</v>
       </c>
@@ -18265,7 +18385,7 @@
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="1"/>
       <c r="B343" t="s">
         <v>21</v>
@@ -18294,7 +18414,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -18333,7 +18453,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" t="b">
         <v>0</v>
       </c>
@@ -18347,7 +18467,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B346" t="s">
         <v>21</v>
       </c>
@@ -18367,7 +18487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="b">
         <v>0</v>
       </c>
@@ -18381,7 +18501,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B348" t="s">
         <v>21</v>
       </c>
@@ -18401,7 +18521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B349" t="s">
         <v>21</v>
       </c>
@@ -18421,7 +18541,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B350" t="s">
         <v>21</v>
       </c>
@@ -18441,7 +18561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B351" t="s">
         <v>21</v>
       </c>
@@ -18461,7 +18581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B352" t="s">
         <v>21</v>
       </c>
@@ -18481,7 +18601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B353" t="s">
         <v>21</v>
       </c>
@@ -18501,7 +18621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B354" t="s">
         <v>21</v>
       </c>
@@ -18521,7 +18641,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B355" t="s">
         <v>21</v>
       </c>
@@ -18541,7 +18661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B356" t="s">
         <v>21</v>
       </c>
@@ -18561,7 +18681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A357" t="b">
         <v>0</v>
       </c>
@@ -18575,7 +18695,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B358" t="s">
         <v>21</v>
       </c>
@@ -18595,7 +18715,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B359" t="s">
         <v>21</v>
       </c>
@@ -18615,7 +18735,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" t="b">
         <v>0</v>
       </c>
@@ -18631,7 +18751,7 @@
       <c r="H360" s="4"/>
       <c r="I360" s="4"/>
     </row>
-    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B361" t="s">
         <v>21</v>
       </c>
@@ -18657,7 +18777,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -18698,7 +18818,7 @@
       <c r="Q362"/>
       <c r="R362"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A363" t="b">
         <v>0</v>
       </c>
@@ -18712,7 +18832,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B364" t="s">
         <v>21</v>
       </c>
@@ -18732,7 +18852,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A365" t="b">
         <v>0</v>
       </c>
@@ -18746,7 +18866,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B366" t="s">
         <v>21</v>
       </c>
@@ -18780,17 +18900,17 @@
       <selection activeCell="O17" sqref="O17:Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>441</v>
       </c>
@@ -18801,7 +18921,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>589</v>
       </c>
@@ -18815,7 +18935,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>592</v>
       </c>
@@ -18829,7 +18949,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>594</v>
       </c>
@@ -18843,7 +18963,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>596</v>
       </c>
@@ -18857,7 +18977,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>598</v>
       </c>
@@ -18871,7 +18991,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>440</v>
       </c>
@@ -18885,7 +19005,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>601</v>
       </c>
@@ -18899,7 +19019,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>603</v>
       </c>
@@ -18913,7 +19033,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -18927,7 +19047,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>454</v>
       </c>
@@ -18941,7 +19061,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>452</v>
       </c>
@@ -18952,8 +19072,8 @@
         <v>544</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="30" customFormat="1" ht="14.45" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>547</v>
       </c>
@@ -18979,7 +19099,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>548</v>
       </c>
@@ -19020,7 +19140,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -19061,7 +19181,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>542</v>
       </c>
@@ -19093,7 +19213,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>550</v>
       </c>
@@ -19125,7 +19245,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>549</v>
       </c>
@@ -19154,7 +19274,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>551</v>
       </c>
@@ -19186,7 +19306,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>552</v>
       </c>
@@ -19206,7 +19326,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>682</v>
       </c>
@@ -19229,7 +19349,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="L25" s="1" t="s">
         <v>558</v>
       </c>
@@ -19249,7 +19369,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="L26" s="1" t="s">
         <v>539</v>
       </c>
@@ -19257,7 +19377,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="L27" s="1" t="s">
         <v>541</v>
       </c>

--- a/projects/office_calibration_nsga_modeled.xlsx
+++ b/projects/office_calibration_nsga_modeled.xlsx
@@ -2014,9 +2014,6 @@
     <t>createConstructionSet</t>
   </si>
   <si>
-    <t>DOE Ref 2004</t>
-  </si>
-  <si>
     <t>ASHRAE 169-2006-5B</t>
   </si>
   <si>
@@ -2573,6 +2570,9 @@
   </si>
   <si>
     <t>O &amp; M Frequency</t>
+  </si>
+  <si>
+    <t>DOE Ref 1980-2004</t>
   </si>
 </sst>
 </file>
@@ -2582,7 +2582,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2647,6 +2647,18 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2750,7 +2762,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1783">
+  <cellStyleXfs count="1784">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4534,8 +4546,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4636,7 +4649,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4651,8 +4663,12 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1783" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1783">
+  <cellStyles count="1784">
+    <cellStyle name="Comma" xfId="1783" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -6818,7 +6834,7 @@
         <v>456</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>457</v>
@@ -6840,7 +6856,7 @@
         <v>470</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
@@ -6911,7 +6927,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -6922,10 +6938,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6933,10 +6949,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7121,13 +7137,13 @@
     </row>
     <row r="32" spans="1:5" s="25" customFormat="1">
       <c r="A32" s="25" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B32" s="24">
         <v>1</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D32" s="29"/>
     </row>
@@ -7151,7 +7167,7 @@
         <v>33</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>31</v>
@@ -7164,7 +7180,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
@@ -7178,7 +7194,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>449</v>
@@ -7189,10 +7205,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E40" s="2"/>
     </row>
@@ -7204,7 +7220,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="11" t="s">
@@ -7213,13 +7229,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="25" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="25" customFormat="1">
@@ -7253,8 +7269,8 @@
   <dimension ref="A1:Y224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:Y108"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7308,14 +7324,14 @@
       <c r="Q1" s="36"/>
       <c r="R1" s="36"/>
       <c r="S1" s="36"/>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
     </row>
     <row r="2" spans="1:25" s="7" customFormat="1" ht="15">
       <c r="A2" s="40" t="s">
@@ -7428,24 +7444,23 @@
       <c r="Y3" s="41"/>
     </row>
     <row r="4" spans="1:25" s="31" customFormat="1">
-      <c r="A4" s="44" t="b">
+      <c r="A4" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="31" t="s">
+        <v>731</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>732</v>
       </c>
-      <c r="C4" s="44" t="s">
-        <v>733</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>733</v>
-      </c>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
@@ -7465,23 +7480,20 @@
       <c r="Y4" s="44"/>
     </row>
     <row r="5" spans="1:25" s="24" customFormat="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
+      <c r="B5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>770</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="F5" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>771</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
-        <v>772</v>
       </c>
       <c r="I5" s="33"/>
       <c r="J5" s="33"/>
@@ -7502,23 +7514,20 @@
       <c r="Y5" s="33"/>
     </row>
     <row r="6" spans="1:25" s="24" customFormat="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33" t="s">
-        <v>736</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="B6" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>735</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="E6" s="24" t="s">
+        <v>734</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
-        <v>734</v>
+      <c r="H6" s="25" t="s">
+        <v>733</v>
       </c>
       <c r="I6" s="33"/>
       <c r="J6" s="33"/>
@@ -7539,24 +7548,23 @@
       <c r="Y6" s="33"/>
     </row>
     <row r="7" spans="1:25" s="31" customFormat="1">
-      <c r="A7" s="44" t="b">
+      <c r="A7" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>661</v>
-      </c>
-      <c r="C7" s="44" t="s">
+      <c r="B7" s="31" t="s">
+        <v>660</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>648</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="31" t="s">
         <v>648</v>
       </c>
-      <c r="E7" s="44" t="s">
+      <c r="E7" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
       <c r="K7" s="44"/>
@@ -7576,23 +7584,20 @@
       <c r="Y7" s="44"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33" t="s">
+      <c r="B8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>650</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="25" t="s">
         <v>649</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33" t="s">
-        <v>737</v>
+      <c r="H8" s="25" t="s">
+        <v>736</v>
       </c>
       <c r="I8" s="45"/>
       <c r="J8" s="45"/>
@@ -7613,23 +7618,20 @@
       <c r="Y8" s="33"/>
     </row>
     <row r="9" spans="1:25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>651</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="25" t="s">
         <v>652</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33" t="s">
-        <v>657</v>
+      <c r="H9" s="4" t="s">
+        <v>843</v>
       </c>
       <c r="I9" s="45"/>
       <c r="J9" s="45"/>
@@ -7650,23 +7652,20 @@
       <c r="Y9" s="33"/>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33" t="s">
+      <c r="B10" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>653</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="25" t="s">
         <v>654</v>
       </c>
-      <c r="F10" s="33" t="s">
+      <c r="F10" s="25" t="s">
         <v>618</v>
       </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33" t="s">
-        <v>658</v>
+      <c r="H10" s="25" t="s">
+        <v>657</v>
       </c>
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
@@ -7687,22 +7686,19 @@
       <c r="Y10" s="33"/>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
-        <v>659</v>
-      </c>
-      <c r="E11" s="33" t="s">
+      <c r="B11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>658</v>
+      </c>
+      <c r="E11" s="25" t="s">
         <v>655</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="b">
+      <c r="H11" s="25" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="33"/>
@@ -7724,22 +7720,19 @@
       <c r="Y11" s="33"/>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="E12" s="33" t="s">
+      <c r="B12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>659</v>
+      </c>
+      <c r="E12" s="25" t="s">
         <v>656</v>
       </c>
-      <c r="F12" s="33" t="s">
+      <c r="F12" s="25" t="s">
         <v>621</v>
       </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33" t="b">
+      <c r="H12" s="25" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="33"/>
@@ -7761,24 +7754,23 @@
       <c r="Y12" s="33"/>
     </row>
     <row r="13" spans="1:25" s="31" customFormat="1">
-      <c r="A13" s="44" t="b">
+      <c r="A13" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>739</v>
-      </c>
-      <c r="C13" s="44" t="s">
+      <c r="B13" s="31" t="s">
         <v>738</v>
       </c>
-      <c r="D13" s="44" t="s">
-        <v>738</v>
-      </c>
-      <c r="E13" s="44" t="s">
+      <c r="C13" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>737</v>
+      </c>
+      <c r="E13" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="44"/>
       <c r="J13" s="44"/>
       <c r="K13" s="44"/>
@@ -7797,26 +7789,24 @@
       <c r="X13" s="44"/>
       <c r="Y13" s="44"/>
     </row>
-    <row r="14" spans="1:25" s="24" customFormat="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="E14" s="33" t="s">
+    <row r="14" spans="1:25" s="24" customFormat="1" ht="17">
+      <c r="B14" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="E14" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="33" t="s">
+      <c r="F14" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="33" t="s">
-        <v>766</v>
-      </c>
-      <c r="H14" s="33">
-        <v>12717</v>
+      <c r="G14" s="24" t="s">
+        <v>765</v>
+      </c>
+      <c r="H14" s="55">
+        <v>104666</v>
       </c>
       <c r="I14" s="33"/>
       <c r="J14" s="33"/>
@@ -7837,22 +7827,22 @@
       <c r="Y14" s="33"/>
     </row>
     <row r="15" spans="1:25" s="24" customFormat="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34" t="s">
-        <v>663</v>
-      </c>
-      <c r="E15" s="34" t="s">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="34" t="s">
+      <c r="F15" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34">
+      <c r="G15" s="32"/>
+      <c r="H15" s="32">
         <v>2</v>
       </c>
       <c r="I15" s="34"/>
@@ -7874,7 +7864,7 @@
       <c r="O15" s="34"/>
       <c r="P15" s="34"/>
       <c r="Q15" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
@@ -7886,23 +7876,20 @@
       <c r="Y15" s="34"/>
     </row>
     <row r="16" spans="1:25" s="24" customFormat="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33" t="s">
+      <c r="B16" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="F16" s="33" t="s">
+      <c r="F16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33">
-        <v>1</v>
+      <c r="H16" s="24">
+        <v>2</v>
       </c>
       <c r="I16" s="33"/>
       <c r="J16" s="33"/>
@@ -7923,25 +7910,25 @@
       <c r="Y16" s="33"/>
     </row>
     <row r="17" spans="1:25" s="24" customFormat="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34" t="s">
-        <v>664</v>
-      </c>
-      <c r="E17" s="34" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32" t="s">
+        <v>663</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>767</v>
-      </c>
-      <c r="H17" s="34">
-        <v>10</v>
+      <c r="G17" s="32" t="s">
+        <v>766</v>
+      </c>
+      <c r="H17" s="32">
+        <v>12</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="34">
@@ -7962,7 +7949,7 @@
       <c r="O17" s="34"/>
       <c r="P17" s="34"/>
       <c r="Q17" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R17" s="34"/>
       <c r="S17" s="34"/>
@@ -7974,22 +7961,19 @@
       <c r="Y17" s="34"/>
     </row>
     <row r="18" spans="1:25" s="24" customFormat="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
+      <c r="B18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>739</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>740</v>
       </c>
-      <c r="E18" s="33" t="s">
-        <v>741</v>
-      </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="48">
+      <c r="H18" s="56">
         <v>0.28999999999999998</v>
       </c>
       <c r="I18" s="33"/>
@@ -8011,22 +7995,19 @@
       <c r="Y18" s="33"/>
     </row>
     <row r="19" spans="1:25" s="24" customFormat="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33" t="s">
+      <c r="B19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>741</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>742</v>
       </c>
-      <c r="E19" s="33" t="s">
-        <v>743</v>
-      </c>
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="48">
+      <c r="H19" s="56">
         <v>0.15</v>
       </c>
       <c r="I19" s="33"/>
@@ -8048,22 +8029,19 @@
       <c r="Y19" s="33"/>
     </row>
     <row r="20" spans="1:25" s="24" customFormat="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33" t="s">
+      <c r="B20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>743</v>
+      </c>
+      <c r="E20" s="24" t="s">
         <v>744</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>745</v>
-      </c>
-      <c r="F20" s="33" t="s">
+      <c r="F20" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="48">
+      <c r="H20" s="56">
         <v>0.02</v>
       </c>
       <c r="I20" s="33"/>
@@ -8085,22 +8063,19 @@
       <c r="Y20" s="33"/>
     </row>
     <row r="21" spans="1:25" s="24" customFormat="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33" t="s">
+      <c r="B21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>745</v>
+      </c>
+      <c r="E21" s="24" t="s">
         <v>746</v>
       </c>
-      <c r="E21" s="33" t="s">
-        <v>747</v>
-      </c>
-      <c r="F21" s="33" t="s">
+      <c r="F21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="33"/>
-      <c r="H21" s="48">
+      <c r="H21" s="56">
         <v>0.08</v>
       </c>
       <c r="I21" s="33"/>
@@ -8122,22 +8097,19 @@
       <c r="Y21" s="33"/>
     </row>
     <row r="22" spans="1:25" s="24" customFormat="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33" t="s">
+      <c r="B22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>747</v>
+      </c>
+      <c r="E22" s="24" t="s">
         <v>748</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>749</v>
-      </c>
-      <c r="F22" s="33" t="s">
+      <c r="F22" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="33"/>
-      <c r="H22" s="48">
+      <c r="H22" s="56">
         <v>0.12</v>
       </c>
       <c r="I22" s="33"/>
@@ -8159,22 +8131,19 @@
       <c r="Y22" s="33"/>
     </row>
     <row r="23" spans="1:25" s="24" customFormat="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33" t="s">
+      <c r="B23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>749</v>
+      </c>
+      <c r="E23" s="24" t="s">
         <v>750</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>751</v>
-      </c>
-      <c r="F23" s="33" t="s">
+      <c r="F23" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="48">
+      <c r="H23" s="56">
         <v>0.02</v>
       </c>
       <c r="I23" s="33"/>
@@ -8196,23 +8165,20 @@
       <c r="Y23" s="33"/>
     </row>
     <row r="24" spans="1:25" s="24" customFormat="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33" t="s">
+      <c r="B24" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>751</v>
+      </c>
+      <c r="E24" s="24" t="s">
         <v>752</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>753</v>
-      </c>
-      <c r="F24" s="33" t="s">
+      <c r="F24" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="33"/>
-      <c r="H24" s="48">
-        <v>0.01</v>
+      <c r="H24" s="56">
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I24" s="33"/>
       <c r="J24" s="33"/>
@@ -8233,22 +8199,19 @@
       <c r="Y24" s="33"/>
     </row>
     <row r="25" spans="1:25" s="24" customFormat="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33" t="s">
+      <c r="B25" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>753</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>754</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>755</v>
-      </c>
-      <c r="F25" s="33" t="s">
+      <c r="F25" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="48">
+      <c r="H25" s="56">
         <v>0.06</v>
       </c>
       <c r="I25" s="33"/>
@@ -8270,23 +8233,20 @@
       <c r="Y25" s="33"/>
     </row>
     <row r="26" spans="1:25" s="24" customFormat="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33" t="s">
+      <c r="B26" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>755</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>756</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>757</v>
-      </c>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="33"/>
-      <c r="H26" s="48">
-        <v>0.03</v>
+      <c r="H26" s="56">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="I26" s="33"/>
       <c r="J26" s="33"/>
@@ -8307,22 +8267,19 @@
       <c r="Y26" s="33"/>
     </row>
     <row r="27" spans="1:25" s="24" customFormat="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33" t="s">
+      <c r="B27" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>757</v>
+      </c>
+      <c r="E27" s="24" t="s">
         <v>758</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>759</v>
-      </c>
-      <c r="F27" s="33" t="s">
+      <c r="F27" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="48">
+      <c r="H27" s="56">
         <v>0.04</v>
       </c>
       <c r="I27" s="33"/>
@@ -8344,22 +8301,19 @@
       <c r="Y27" s="33"/>
     </row>
     <row r="28" spans="1:25" s="24" customFormat="1">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33" t="s">
+      <c r="B28" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="E28" s="24" t="s">
         <v>760</v>
       </c>
-      <c r="E28" s="33" t="s">
-        <v>761</v>
-      </c>
-      <c r="F28" s="33" t="s">
+      <c r="F28" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="48">
+      <c r="H28" s="56">
         <v>0.03</v>
       </c>
       <c r="I28" s="33"/>
@@ -8381,22 +8335,19 @@
       <c r="Y28" s="33"/>
     </row>
     <row r="29" spans="1:25" s="24" customFormat="1">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
+      <c r="B29" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>761</v>
+      </c>
+      <c r="E29" s="24" t="s">
         <v>762</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>763</v>
-      </c>
-      <c r="F29" s="33" t="s">
+      <c r="F29" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="48">
+      <c r="H29" s="56">
         <v>0.14000000000000001</v>
       </c>
       <c r="I29" s="33"/>
@@ -8418,22 +8369,19 @@
       <c r="Y29" s="33"/>
     </row>
     <row r="30" spans="1:25" s="24" customFormat="1">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
+      <c r="B30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="E30" s="24" t="s">
         <v>764</v>
       </c>
-      <c r="E30" s="33" t="s">
-        <v>765</v>
-      </c>
-      <c r="F30" s="33" t="s">
+      <c r="F30" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="G30" s="33"/>
-      <c r="H30" s="48">
+      <c r="H30" s="56">
         <v>0.02</v>
       </c>
       <c r="I30" s="33"/>
@@ -8459,13 +8407,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="44" t="s">
+        <v>664</v>
+      </c>
+      <c r="C31" s="44" t="s">
         <v>665</v>
       </c>
-      <c r="C31" s="44" t="s">
-        <v>666</v>
-      </c>
       <c r="D31" s="44" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E31" s="44" t="s">
         <v>68</v>
@@ -8498,10 +8446,10 @@
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33" t="s">
+        <v>676</v>
+      </c>
+      <c r="E32" s="33" t="s">
         <v>677</v>
-      </c>
-      <c r="E32" s="33" t="s">
-        <v>678</v>
       </c>
       <c r="F32" s="33" t="s">
         <v>619</v>
@@ -8531,13 +8479,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="44" t="s">
+        <v>821</v>
+      </c>
+      <c r="C33" s="44" t="s">
         <v>822</v>
       </c>
-      <c r="C33" s="44" t="s">
-        <v>823</v>
-      </c>
       <c r="D33" s="44" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E33" s="44" t="s">
         <v>68</v>
@@ -8570,10 +8518,10 @@
       </c>
       <c r="C34" s="34"/>
       <c r="D34" s="34" t="s">
+        <v>784</v>
+      </c>
+      <c r="E34" s="34" t="s">
         <v>785</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>786</v>
       </c>
       <c r="F34" s="34" t="s">
         <v>64</v>
@@ -8601,7 +8549,7 @@
       <c r="O34" s="34"/>
       <c r="P34" s="34"/>
       <c r="Q34" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R34" s="34"/>
       <c r="S34" s="34"/>
@@ -8619,10 +8567,10 @@
       </c>
       <c r="C35" s="34"/>
       <c r="D35" s="34" t="s">
+        <v>786</v>
+      </c>
+      <c r="E35" s="34" t="s">
         <v>787</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>788</v>
       </c>
       <c r="F35" s="34" t="s">
         <v>64</v>
@@ -8650,7 +8598,7 @@
       <c r="O35" s="34"/>
       <c r="P35" s="34"/>
       <c r="Q35" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R35" s="34"/>
       <c r="S35" s="34"/>
@@ -8666,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C36" s="44" t="s">
         <v>74</v>
@@ -8705,7 +8653,7 @@
       </c>
       <c r="C37" s="34"/>
       <c r="D37" s="34" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="E37" s="34" t="s">
         <v>75</v>
@@ -8714,7 +8662,7 @@
         <v>619</v>
       </c>
       <c r="G37" s="34" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H37" s="34">
         <v>0</v>
@@ -8738,7 +8686,7 @@
       <c r="O37" s="34"/>
       <c r="P37" s="34"/>
       <c r="Q37" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R37" s="34"/>
       <c r="S37" s="34"/>
@@ -8754,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C38" s="44" t="s">
         <v>76</v>
@@ -8793,7 +8741,7 @@
       </c>
       <c r="C39" s="33"/>
       <c r="D39" s="33" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>77</v>
@@ -8824,7 +8772,7 @@
       <c r="O39" s="33"/>
       <c r="P39" s="46"/>
       <c r="Q39" s="33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R39" s="33"/>
       <c r="S39" s="33"/>
@@ -8842,7 +8790,7 @@
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>79</v>
@@ -8851,7 +8799,7 @@
         <v>619</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H40" s="33">
         <v>30</v>
@@ -8881,7 +8829,7 @@
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>81</v>
@@ -8890,10 +8838,10 @@
         <v>618</v>
       </c>
       <c r="G41" s="33" t="s">
+        <v>667</v>
+      </c>
+      <c r="H41" s="33" t="s">
         <v>668</v>
-      </c>
-      <c r="H41" s="33" t="s">
-        <v>669</v>
       </c>
       <c r="I41" s="45"/>
       <c r="J41" s="45"/>
@@ -8918,7 +8866,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>76</v>
@@ -8957,7 +8905,7 @@
       </c>
       <c r="C43" s="33"/>
       <c r="D43" s="33" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E43" s="33" t="s">
         <v>77</v>
@@ -8988,7 +8936,7 @@
       <c r="O43" s="33"/>
       <c r="P43" s="46"/>
       <c r="Q43" s="33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R43" s="33"/>
       <c r="S43" s="33"/>
@@ -9006,7 +8954,7 @@
       </c>
       <c r="C44" s="33"/>
       <c r="D44" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>79</v>
@@ -9015,7 +8963,7 @@
         <v>619</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H44" s="33">
         <v>30</v>
@@ -9045,7 +8993,7 @@
       </c>
       <c r="C45" s="33"/>
       <c r="D45" s="33" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>81</v>
@@ -9054,7 +9002,7 @@
         <v>618</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H45" s="33" t="s">
         <v>82</v>
@@ -9082,7 +9030,7 @@
         <v>1</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>76</v>
@@ -9121,7 +9069,7 @@
       </c>
       <c r="C47" s="33"/>
       <c r="D47" s="33" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E47" s="33" t="s">
         <v>77</v>
@@ -9152,7 +9100,7 @@
       <c r="O47" s="33"/>
       <c r="P47" s="46"/>
       <c r="Q47" s="33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R47" s="33"/>
       <c r="S47" s="33"/>
@@ -9170,7 +9118,7 @@
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>79</v>
@@ -9179,7 +9127,7 @@
         <v>619</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H48" s="33">
         <v>30</v>
@@ -9209,7 +9157,7 @@
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E49" s="33" t="s">
         <v>81</v>
@@ -9218,10 +9166,10 @@
         <v>618</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H49" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I49" s="45"/>
       <c r="J49" s="45"/>
@@ -9246,7 +9194,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C50" s="44" t="s">
         <v>76</v>
@@ -9285,7 +9233,7 @@
       </c>
       <c r="C51" s="33"/>
       <c r="D51" s="33" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E51" s="33" t="s">
         <v>77</v>
@@ -9316,7 +9264,7 @@
       <c r="O51" s="33"/>
       <c r="P51" s="46"/>
       <c r="Q51" s="33" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R51" s="33"/>
       <c r="S51" s="33"/>
@@ -9334,7 +9282,7 @@
       </c>
       <c r="C52" s="33"/>
       <c r="D52" s="33" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E52" s="33" t="s">
         <v>79</v>
@@ -9343,7 +9291,7 @@
         <v>619</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H52" s="33">
         <v>30</v>
@@ -9373,7 +9321,7 @@
       </c>
       <c r="C53" s="33"/>
       <c r="D53" s="33" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E53" s="33" t="s">
         <v>81</v>
@@ -9382,10 +9330,10 @@
         <v>618</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H53" s="33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I53" s="45"/>
       <c r="J53" s="45"/>
@@ -9410,13 +9358,13 @@
         <v>1</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E54" s="44" t="s">
         <v>68</v>
@@ -9449,17 +9397,17 @@
       </c>
       <c r="C55" s="33"/>
       <c r="D55" s="33" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F55" s="33" t="s">
         <v>618</v>
       </c>
       <c r="G55" s="33"/>
       <c r="H55" s="33" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I55" s="33"/>
       <c r="J55" s="33"/>
@@ -9486,17 +9434,17 @@
       </c>
       <c r="C56" s="33"/>
       <c r="D56" s="33" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E56" s="33" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F56" s="33" t="s">
         <v>618</v>
       </c>
       <c r="G56" s="33"/>
       <c r="H56" s="33" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I56" s="33"/>
       <c r="J56" s="33"/>
@@ -9523,17 +9471,17 @@
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="33" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F57" s="33" t="s">
         <v>618</v>
       </c>
       <c r="G57" s="33"/>
-      <c r="H57" s="49" t="s">
-        <v>701</v>
+      <c r="H57" s="48" t="s">
+        <v>700</v>
       </c>
       <c r="I57" s="33"/>
       <c r="J57" s="33"/>
@@ -9560,17 +9508,17 @@
       </c>
       <c r="C58" s="33"/>
       <c r="D58" s="33" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F58" s="33" t="s">
         <v>618</v>
       </c>
       <c r="G58" s="33"/>
-      <c r="H58" s="49" t="s">
-        <v>700</v>
+      <c r="H58" s="48" t="s">
+        <v>699</v>
       </c>
       <c r="I58" s="33"/>
       <c r="J58" s="33"/>
@@ -9595,13 +9543,13 @@
         <v>1</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E59" s="44" t="s">
         <v>233</v>
@@ -9628,41 +9576,41 @@
       <c r="Y59" s="44"/>
     </row>
     <row r="60" spans="1:25" s="32" customFormat="1">
-      <c r="A60" s="51" t="b">
+      <c r="A60" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B60" s="51" t="s">
-        <v>774</v>
-      </c>
-      <c r="C60" s="51" t="s">
+      <c r="B60" s="50" t="s">
+        <v>773</v>
+      </c>
+      <c r="C60" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="51" t="s">
+      <c r="D60" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="E60" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="51"/>
-      <c r="G60" s="51"/>
-      <c r="H60" s="51"/>
-      <c r="I60" s="51"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="51"/>
-      <c r="M60" s="51"/>
-      <c r="N60" s="51"/>
-      <c r="O60" s="51"/>
-      <c r="P60" s="51"/>
-      <c r="Q60" s="51"/>
-      <c r="R60" s="51"/>
-      <c r="S60" s="51"/>
-      <c r="T60" s="51"/>
-      <c r="U60" s="51"/>
-      <c r="V60" s="51"/>
-      <c r="W60" s="51"/>
-      <c r="X60" s="51"/>
-      <c r="Y60" s="51"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="50"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="50"/>
+      <c r="K60" s="50"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="50"/>
+      <c r="O60" s="50"/>
+      <c r="P60" s="50"/>
+      <c r="Q60" s="50"/>
+      <c r="R60" s="50"/>
+      <c r="S60" s="50"/>
+      <c r="T60" s="50"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="50"/>
+      <c r="W60" s="50"/>
+      <c r="X60" s="50"/>
+      <c r="Y60" s="50"/>
     </row>
     <row r="61" spans="1:25" s="24" customFormat="1">
       <c r="A61" s="34"/>
@@ -9671,7 +9619,7 @@
       </c>
       <c r="C61" s="34"/>
       <c r="D61" s="34" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E61" s="34" t="s">
         <v>77</v>
@@ -9702,7 +9650,7 @@
       <c r="O61" s="34"/>
       <c r="P61" s="34"/>
       <c r="Q61" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R61" s="34"/>
       <c r="S61" s="34"/>
@@ -9790,41 +9738,41 @@
       <c r="Y63" s="33"/>
     </row>
     <row r="64" spans="1:25" s="32" customFormat="1">
-      <c r="A64" s="51" t="b">
+      <c r="A64" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B64" s="51" t="s">
-        <v>777</v>
-      </c>
-      <c r="C64" s="51" t="s">
+      <c r="B64" s="50" t="s">
+        <v>776</v>
+      </c>
+      <c r="C64" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="51"/>
-      <c r="I64" s="51"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="51"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="51"/>
-      <c r="O64" s="51"/>
-      <c r="P64" s="51"/>
-      <c r="Q64" s="51"/>
-      <c r="R64" s="51"/>
-      <c r="S64" s="51"/>
-      <c r="T64" s="51"/>
-      <c r="U64" s="51"/>
-      <c r="V64" s="51"/>
-      <c r="W64" s="51"/>
-      <c r="X64" s="51"/>
-      <c r="Y64" s="51"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
+      <c r="U64" s="50"/>
+      <c r="V64" s="50"/>
+      <c r="W64" s="50"/>
+      <c r="X64" s="50"/>
+      <c r="Y64" s="50"/>
     </row>
     <row r="65" spans="1:25" s="24" customFormat="1">
       <c r="A65" s="34"/>
@@ -9833,7 +9781,7 @@
       </c>
       <c r="C65" s="34"/>
       <c r="D65" s="34" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E65" s="34" t="s">
         <v>77</v>
@@ -9864,7 +9812,7 @@
       <c r="O65" s="34"/>
       <c r="P65" s="34"/>
       <c r="Q65" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R65" s="34"/>
       <c r="S65" s="34"/>
@@ -9929,7 +9877,7 @@
       </c>
       <c r="G67" s="33"/>
       <c r="H67" s="33" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I67" s="33" t="s">
         <v>84</v>
@@ -9952,41 +9900,41 @@
       <c r="Y67" s="33"/>
     </row>
     <row r="68" spans="1:25" s="32" customFormat="1">
-      <c r="A68" s="51" t="b">
+      <c r="A68" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B68" s="51" t="s">
-        <v>779</v>
-      </c>
-      <c r="C68" s="51" t="s">
+      <c r="B68" s="50" t="s">
+        <v>778</v>
+      </c>
+      <c r="C68" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="51" t="s">
+      <c r="E68" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F68" s="51"/>
-      <c r="G68" s="51"/>
-      <c r="H68" s="51"/>
-      <c r="I68" s="51"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="51"/>
-      <c r="M68" s="51"/>
-      <c r="N68" s="51"/>
-      <c r="O68" s="51"/>
-      <c r="P68" s="51"/>
-      <c r="Q68" s="51"/>
-      <c r="R68" s="51"/>
-      <c r="S68" s="51"/>
-      <c r="T68" s="51"/>
-      <c r="U68" s="51"/>
-      <c r="V68" s="51"/>
-      <c r="W68" s="51"/>
-      <c r="X68" s="51"/>
-      <c r="Y68" s="51"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="50"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="50"/>
+      <c r="S68" s="50"/>
+      <c r="T68" s="50"/>
+      <c r="U68" s="50"/>
+      <c r="V68" s="50"/>
+      <c r="W68" s="50"/>
+      <c r="X68" s="50"/>
+      <c r="Y68" s="50"/>
     </row>
     <row r="69" spans="1:25" s="24" customFormat="1">
       <c r="A69" s="34"/>
@@ -9995,7 +9943,7 @@
       </c>
       <c r="C69" s="34"/>
       <c r="D69" s="34" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>77</v>
@@ -10026,7 +9974,7 @@
       <c r="O69" s="34"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R69" s="34"/>
       <c r="S69" s="34"/>
@@ -10091,7 +10039,7 @@
       </c>
       <c r="G71" s="33"/>
       <c r="H71" s="33" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I71" s="33" t="s">
         <v>84</v>
@@ -10114,41 +10062,41 @@
       <c r="Y71" s="33"/>
     </row>
     <row r="72" spans="1:25" s="24" customFormat="1">
-      <c r="A72" s="51" t="b">
+      <c r="A72" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="51" t="s">
+      <c r="C72" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="51" t="s">
+      <c r="D72" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="51" t="s">
+      <c r="E72" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="51"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="51"/>
-      <c r="M72" s="51"/>
-      <c r="N72" s="51"/>
-      <c r="O72" s="51"/>
-      <c r="P72" s="51"/>
-      <c r="Q72" s="51"/>
-      <c r="R72" s="51"/>
-      <c r="S72" s="51"/>
-      <c r="T72" s="51"/>
-      <c r="U72" s="51"/>
-      <c r="V72" s="51"/>
-      <c r="W72" s="51"/>
-      <c r="X72" s="51"/>
-      <c r="Y72" s="51"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="50"/>
+      <c r="N72" s="50"/>
+      <c r="O72" s="50"/>
+      <c r="P72" s="50"/>
+      <c r="Q72" s="50"/>
+      <c r="R72" s="50"/>
+      <c r="S72" s="50"/>
+      <c r="T72" s="50"/>
+      <c r="U72" s="50"/>
+      <c r="V72" s="50"/>
+      <c r="W72" s="50"/>
+      <c r="X72" s="50"/>
+      <c r="Y72" s="50"/>
     </row>
     <row r="73" spans="1:25" s="32" customFormat="1">
       <c r="A73" s="33"/>
@@ -10195,8 +10143,8 @@
         <v>22</v>
       </c>
       <c r="C74" s="34"/>
-      <c r="D74" s="50" t="s">
-        <v>781</v>
+      <c r="D74" s="49" t="s">
+        <v>780</v>
       </c>
       <c r="E74" s="34" t="s">
         <v>70</v>
@@ -10227,7 +10175,7 @@
       <c r="O74" s="34"/>
       <c r="P74" s="34"/>
       <c r="Q74" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R74" s="34"/>
       <c r="S74" s="34"/>
@@ -10350,41 +10298,41 @@
       <c r="Y77" s="33"/>
     </row>
     <row r="78" spans="1:25">
-      <c r="A78" s="51" t="b">
+      <c r="A78" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B78" s="51" t="s">
+      <c r="B78" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="C78" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="D78" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="51" t="s">
+      <c r="E78" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F78" s="51"/>
-      <c r="G78" s="51"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="51"/>
-      <c r="J78" s="51"/>
-      <c r="K78" s="51"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="51"/>
-      <c r="Q78" s="51"/>
-      <c r="R78" s="51"/>
-      <c r="S78" s="51"/>
-      <c r="T78" s="51"/>
-      <c r="U78" s="51"/>
-      <c r="V78" s="51"/>
-      <c r="W78" s="51"/>
-      <c r="X78" s="51"/>
-      <c r="Y78" s="51"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="50"/>
+      <c r="J78" s="50"/>
+      <c r="K78" s="50"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="50"/>
+      <c r="O78" s="50"/>
+      <c r="P78" s="50"/>
+      <c r="Q78" s="50"/>
+      <c r="R78" s="50"/>
+      <c r="S78" s="50"/>
+      <c r="T78" s="50"/>
+      <c r="U78" s="50"/>
+      <c r="V78" s="50"/>
+      <c r="W78" s="50"/>
+      <c r="X78" s="50"/>
+      <c r="Y78" s="50"/>
     </row>
     <row r="79" spans="1:25" s="32" customFormat="1">
       <c r="A79" s="33"/>
@@ -10432,7 +10380,7 @@
       </c>
       <c r="C80" s="34"/>
       <c r="D80" s="34" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E80" s="34" t="s">
         <v>46</v>
@@ -10461,7 +10409,7 @@
         <v>2.5</v>
       </c>
       <c r="O80" s="34"/>
-      <c r="P80" s="52"/>
+      <c r="P80" s="51"/>
       <c r="Q80" s="34" t="s">
         <v>24</v>
       </c>
@@ -10480,7 +10428,7 @@
         <v>21</v>
       </c>
       <c r="C81" s="33"/>
-      <c r="D81" s="53" t="s">
+      <c r="D81" s="52" t="s">
         <v>47</v>
       </c>
       <c r="E81" s="33" t="s">
@@ -10734,41 +10682,41 @@
       <c r="Y87" s="33"/>
     </row>
     <row r="88" spans="1:25" s="32" customFormat="1">
-      <c r="A88" s="51" t="b">
+      <c r="A88" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B88" s="51" t="s">
+      <c r="B88" s="50" t="s">
         <v>327</v>
       </c>
-      <c r="C88" s="51" t="s">
+      <c r="C88" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="D88" s="51" t="s">
+      <c r="D88" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="E88" s="51" t="s">
+      <c r="E88" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F88" s="51"/>
-      <c r="G88" s="51"/>
-      <c r="H88" s="51"/>
-      <c r="I88" s="51"/>
-      <c r="J88" s="51"/>
-      <c r="K88" s="51"/>
-      <c r="L88" s="51"/>
-      <c r="M88" s="51"/>
-      <c r="N88" s="51"/>
-      <c r="O88" s="51"/>
-      <c r="P88" s="51"/>
-      <c r="Q88" s="51"/>
-      <c r="R88" s="51"/>
-      <c r="S88" s="51"/>
-      <c r="T88" s="51"/>
-      <c r="U88" s="51"/>
-      <c r="V88" s="51"/>
-      <c r="W88" s="51"/>
-      <c r="X88" s="51"/>
-      <c r="Y88" s="51"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="50"/>
+      <c r="H88" s="50"/>
+      <c r="I88" s="50"/>
+      <c r="J88" s="50"/>
+      <c r="K88" s="50"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="50"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="50"/>
+      <c r="P88" s="50"/>
+      <c r="Q88" s="50"/>
+      <c r="R88" s="50"/>
+      <c r="S88" s="50"/>
+      <c r="T88" s="50"/>
+      <c r="U88" s="50"/>
+      <c r="V88" s="50"/>
+      <c r="W88" s="50"/>
+      <c r="X88" s="50"/>
+      <c r="Y88" s="50"/>
     </row>
     <row r="89" spans="1:25" s="32" customFormat="1">
       <c r="A89" s="33"/>
@@ -10816,7 +10764,7 @@
       </c>
       <c r="C90" s="34"/>
       <c r="D90" s="34" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E90" s="34" t="s">
         <v>330</v>
@@ -10847,7 +10795,7 @@
       <c r="O90" s="34"/>
       <c r="P90" s="34"/>
       <c r="Q90" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R90" s="34"/>
       <c r="S90" s="34"/>
@@ -10859,41 +10807,41 @@
       <c r="Y90" s="34"/>
     </row>
     <row r="91" spans="1:25">
-      <c r="A91" s="51" t="b">
+      <c r="A91" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B91" s="51" t="s">
+      <c r="B91" s="50" t="s">
+        <v>827</v>
+      </c>
+      <c r="C91" s="50" t="s">
         <v>828</v>
       </c>
-      <c r="C91" s="51" t="s">
-        <v>829</v>
-      </c>
-      <c r="D91" s="51" t="s">
-        <v>829</v>
-      </c>
-      <c r="E91" s="51" t="s">
+      <c r="D91" s="50" t="s">
+        <v>828</v>
+      </c>
+      <c r="E91" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F91" s="51"/>
-      <c r="G91" s="51"/>
-      <c r="H91" s="51"/>
-      <c r="I91" s="51"/>
-      <c r="J91" s="51"/>
-      <c r="K91" s="51"/>
-      <c r="L91" s="51"/>
-      <c r="M91" s="51"/>
-      <c r="N91" s="51"/>
-      <c r="O91" s="51"/>
-      <c r="P91" s="51"/>
-      <c r="Q91" s="51"/>
-      <c r="R91" s="51"/>
-      <c r="S91" s="51"/>
-      <c r="T91" s="51"/>
-      <c r="U91" s="51"/>
-      <c r="V91" s="51"/>
-      <c r="W91" s="51"/>
-      <c r="X91" s="51"/>
-      <c r="Y91" s="51"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="50"/>
+      <c r="H91" s="50"/>
+      <c r="I91" s="50"/>
+      <c r="J91" s="50"/>
+      <c r="K91" s="50"/>
+      <c r="L91" s="50"/>
+      <c r="M91" s="50"/>
+      <c r="N91" s="50"/>
+      <c r="O91" s="50"/>
+      <c r="P91" s="50"/>
+      <c r="Q91" s="50"/>
+      <c r="R91" s="50"/>
+      <c r="S91" s="50"/>
+      <c r="T91" s="50"/>
+      <c r="U91" s="50"/>
+      <c r="V91" s="50"/>
+      <c r="W91" s="50"/>
+      <c r="X91" s="50"/>
+      <c r="Y91" s="50"/>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" s="34"/>
@@ -10902,7 +10850,7 @@
       </c>
       <c r="C92" s="34"/>
       <c r="D92" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E92" s="34" t="s">
         <v>258</v>
@@ -10933,7 +10881,7 @@
       <c r="O92" s="34"/>
       <c r="P92" s="34"/>
       <c r="Q92" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R92" s="34"/>
       <c r="S92" s="34"/>
@@ -10945,41 +10893,41 @@
       <c r="Y92" s="34"/>
     </row>
     <row r="93" spans="1:25">
-      <c r="A93" s="51" t="b">
+      <c r="A93" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B93" s="51" t="s">
+      <c r="B93" s="50" t="s">
+        <v>830</v>
+      </c>
+      <c r="C93" s="50" t="s">
         <v>831</v>
       </c>
-      <c r="C93" s="51" t="s">
-        <v>832</v>
-      </c>
-      <c r="D93" s="51" t="s">
-        <v>832</v>
-      </c>
-      <c r="E93" s="51" t="s">
+      <c r="D93" s="50" t="s">
+        <v>831</v>
+      </c>
+      <c r="E93" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F93" s="51"/>
-      <c r="G93" s="51"/>
-      <c r="H93" s="51"/>
-      <c r="I93" s="51"/>
-      <c r="J93" s="51"/>
-      <c r="K93" s="51"/>
-      <c r="L93" s="51"/>
-      <c r="M93" s="51"/>
-      <c r="N93" s="51"/>
-      <c r="O93" s="51"/>
-      <c r="P93" s="51"/>
-      <c r="Q93" s="51"/>
-      <c r="R93" s="51"/>
-      <c r="S93" s="51"/>
-      <c r="T93" s="51"/>
-      <c r="U93" s="51"/>
-      <c r="V93" s="51"/>
-      <c r="W93" s="51"/>
-      <c r="X93" s="51"/>
-      <c r="Y93" s="51"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="50"/>
+      <c r="I93" s="50"/>
+      <c r="J93" s="50"/>
+      <c r="K93" s="50"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="50"/>
+      <c r="P93" s="50"/>
+      <c r="Q93" s="50"/>
+      <c r="R93" s="50"/>
+      <c r="S93" s="50"/>
+      <c r="T93" s="50"/>
+      <c r="U93" s="50"/>
+      <c r="V93" s="50"/>
+      <c r="W93" s="50"/>
+      <c r="X93" s="50"/>
+      <c r="Y93" s="50"/>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" s="34"/>
@@ -10988,7 +10936,7 @@
       </c>
       <c r="C94" s="34"/>
       <c r="D94" s="34" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E94" s="34" t="s">
         <v>258</v>
@@ -11019,7 +10967,7 @@
       <c r="O94" s="34"/>
       <c r="P94" s="34"/>
       <c r="Q94" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R94" s="34"/>
       <c r="S94" s="34"/>
@@ -11031,41 +10979,41 @@
       <c r="Y94" s="34"/>
     </row>
     <row r="95" spans="1:25">
-      <c r="A95" s="51" t="b">
+      <c r="A95" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B95" s="51" t="s">
+      <c r="B95" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="C95" s="51" t="s">
+      <c r="C95" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="D95" s="51" t="s">
+      <c r="D95" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="E95" s="51" t="s">
+      <c r="E95" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F95" s="51"/>
-      <c r="G95" s="51"/>
-      <c r="H95" s="51"/>
-      <c r="I95" s="51"/>
-      <c r="J95" s="51"/>
-      <c r="K95" s="51"/>
-      <c r="L95" s="51"/>
-      <c r="M95" s="51"/>
-      <c r="N95" s="51"/>
-      <c r="O95" s="51"/>
-      <c r="P95" s="51"/>
-      <c r="Q95" s="51"/>
-      <c r="R95" s="51"/>
-      <c r="S95" s="51"/>
-      <c r="T95" s="51"/>
-      <c r="U95" s="51"/>
-      <c r="V95" s="51"/>
-      <c r="W95" s="51"/>
-      <c r="X95" s="51"/>
-      <c r="Y95" s="51"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="50"/>
+      <c r="H95" s="50"/>
+      <c r="I95" s="50"/>
+      <c r="J95" s="50"/>
+      <c r="K95" s="50"/>
+      <c r="L95" s="50"/>
+      <c r="M95" s="50"/>
+      <c r="N95" s="50"/>
+      <c r="O95" s="50"/>
+      <c r="P95" s="50"/>
+      <c r="Q95" s="50"/>
+      <c r="R95" s="50"/>
+      <c r="S95" s="50"/>
+      <c r="T95" s="50"/>
+      <c r="U95" s="50"/>
+      <c r="V95" s="50"/>
+      <c r="W95" s="50"/>
+      <c r="X95" s="50"/>
+      <c r="Y95" s="50"/>
     </row>
     <row r="96" spans="1:25">
       <c r="A96" s="33"/>
@@ -11113,7 +11061,7 @@
       </c>
       <c r="C97" s="34"/>
       <c r="D97" s="34" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E97" s="34" t="s">
         <v>288</v>
@@ -11122,7 +11070,7 @@
         <v>64</v>
       </c>
       <c r="G97" s="34" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H97" s="34">
         <v>0</v>
@@ -11146,7 +11094,7 @@
       <c r="O97" s="34"/>
       <c r="P97" s="34"/>
       <c r="Q97" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R97" s="34"/>
       <c r="S97" s="34"/>
@@ -11164,7 +11112,7 @@
       </c>
       <c r="C98" s="33"/>
       <c r="D98" s="33" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E98" s="33" t="s">
         <v>48</v>
@@ -11173,7 +11121,7 @@
         <v>64</v>
       </c>
       <c r="G98" s="33" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H98" s="33">
         <v>0</v>
@@ -11203,7 +11151,7 @@
       </c>
       <c r="C99" s="33"/>
       <c r="D99" s="33" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E99" s="33" t="s">
         <v>50</v>
@@ -11212,7 +11160,7 @@
         <v>64</v>
       </c>
       <c r="G99" s="33" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H99" s="33">
         <v>0</v>
@@ -11242,7 +11190,7 @@
       </c>
       <c r="C100" s="33"/>
       <c r="D100" s="33" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E100" s="33" t="s">
         <v>52</v>
@@ -11251,7 +11199,7 @@
         <v>65</v>
       </c>
       <c r="G100" s="33" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H100" s="33">
         <v>0</v>
@@ -11281,7 +11229,7 @@
       </c>
       <c r="C101" s="33"/>
       <c r="D101" s="33" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E101" s="33" t="s">
         <v>54</v>
@@ -11318,7 +11266,7 @@
       </c>
       <c r="C102" s="33"/>
       <c r="D102" s="33" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E102" s="33" t="s">
         <v>56</v>
@@ -11327,7 +11275,7 @@
         <v>65</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H102" s="33">
         <v>15</v>
@@ -11357,7 +11305,7 @@
       </c>
       <c r="C103" s="33"/>
       <c r="D103" s="33" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E103" s="33" t="s">
         <v>58</v>
@@ -11366,7 +11314,7 @@
         <v>64</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H103" s="33">
         <v>0</v>
@@ -11396,7 +11344,7 @@
       </c>
       <c r="C104" s="33"/>
       <c r="D104" s="33" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E104" s="33" t="s">
         <v>60</v>
@@ -11405,7 +11353,7 @@
         <v>65</v>
       </c>
       <c r="G104" s="33" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H104" s="33">
         <v>1</v>
@@ -11429,41 +11377,41 @@
       <c r="Y104" s="33"/>
     </row>
     <row r="105" spans="1:25">
-      <c r="A105" s="51" t="b">
+      <c r="A105" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="B105" s="51" t="s">
+      <c r="B105" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="51" t="s">
-        <v>817</v>
-      </c>
-      <c r="D105" s="51" t="s">
-        <v>817</v>
-      </c>
-      <c r="E105" s="51" t="s">
+      <c r="C105" s="50" t="s">
+        <v>816</v>
+      </c>
+      <c r="D105" s="50" t="s">
+        <v>816</v>
+      </c>
+      <c r="E105" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
-      <c r="I105" s="51"/>
-      <c r="J105" s="51"/>
-      <c r="K105" s="51"/>
-      <c r="L105" s="51"/>
-      <c r="M105" s="51"/>
-      <c r="N105" s="51"/>
-      <c r="O105" s="51"/>
-      <c r="P105" s="51"/>
-      <c r="Q105" s="51"/>
-      <c r="R105" s="51"/>
-      <c r="S105" s="51"/>
-      <c r="T105" s="51"/>
-      <c r="U105" s="51"/>
-      <c r="V105" s="51"/>
-      <c r="W105" s="51"/>
-      <c r="X105" s="51"/>
-      <c r="Y105" s="51"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
+      <c r="I105" s="50"/>
+      <c r="J105" s="50"/>
+      <c r="K105" s="50"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="50"/>
+      <c r="N105" s="50"/>
+      <c r="O105" s="50"/>
+      <c r="P105" s="50"/>
+      <c r="Q105" s="50"/>
+      <c r="R105" s="50"/>
+      <c r="S105" s="50"/>
+      <c r="T105" s="50"/>
+      <c r="U105" s="50"/>
+      <c r="V105" s="50"/>
+      <c r="W105" s="50"/>
+      <c r="X105" s="50"/>
+      <c r="Y105" s="50"/>
     </row>
     <row r="106" spans="1:25">
       <c r="A106" s="34"/>
@@ -11472,7 +11420,7 @@
       </c>
       <c r="C106" s="34"/>
       <c r="D106" s="34" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E106" s="34" t="s">
         <v>190</v>
@@ -11481,7 +11429,7 @@
         <v>64</v>
       </c>
       <c r="G106" s="34" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H106" s="34">
         <v>1</v>
@@ -11505,7 +11453,7 @@
       <c r="O106" s="34"/>
       <c r="P106" s="34"/>
       <c r="Q106" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R106" s="34"/>
       <c r="S106" s="34"/>
@@ -11523,7 +11471,7 @@
       </c>
       <c r="C107" s="34"/>
       <c r="D107" s="34" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E107" s="34" t="s">
         <v>192</v>
@@ -11532,7 +11480,7 @@
         <v>64</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H107" s="34">
         <v>-1</v>
@@ -11556,7 +11504,7 @@
       <c r="O107" s="34"/>
       <c r="P107" s="34"/>
       <c r="Q107" s="34" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="R107" s="34"/>
       <c r="S107" s="34"/>
@@ -11574,7 +11522,7 @@
       </c>
       <c r="C108" s="33"/>
       <c r="D108" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E108" s="33" t="s">
         <v>194</v>
@@ -14978,14 +14926,14 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="24" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>64</v>
@@ -15009,14 +14957,14 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="24" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>64</v>
@@ -15041,14 +14989,14 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="24" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>64</v>
@@ -15073,14 +15021,14 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="24" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>64</v>
@@ -15105,14 +15053,14 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="24" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>64</v>
@@ -15137,14 +15085,14 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="24" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>64</v>
@@ -15169,14 +15117,14 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="24" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>64</v>
@@ -15201,14 +15149,14 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="24" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>64</v>
@@ -15233,14 +15181,14 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="24" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>64</v>
@@ -15265,14 +15213,14 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="24" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>64</v>
@@ -15297,14 +15245,14 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="24" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>64</v>
@@ -15329,14 +15277,14 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="24" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>64</v>
@@ -15360,14 +15308,14 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="24" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>64</v>
@@ -15392,14 +15340,14 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="24" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>64</v>
@@ -15424,14 +15372,14 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="24" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E22" s="24" t="s">
         <v>64</v>
@@ -15456,14 +15404,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="24" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>64</v>
@@ -15488,14 +15436,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="24" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>64</v>
@@ -15520,14 +15468,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="24" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="24" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E25" s="24" t="s">
         <v>64</v>
@@ -15552,14 +15500,14 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="24" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>64</v>
@@ -15584,14 +15532,14 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="24" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>64</v>
@@ -15616,14 +15564,14 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="24" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>64</v>
@@ -15648,14 +15596,14 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="24" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>64</v>
@@ -24337,7 +24285,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>557</v>
@@ -24369,13 +24317,13 @@
         <v>574</v>
       </c>
       <c r="O25" s="25" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="P25" s="24">
         <v>1</v>
       </c>
       <c r="Q25" s="28" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="26" spans="1:17">
